--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2670.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2670.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160201396735768</v>
+        <v>1.269143104553223</v>
       </c>
       <c r="B1">
-        <v>2.422256315569568</v>
+        <v>1.286441206932068</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.386765599250793</v>
       </c>
       <c r="D1">
-        <v>2.327855301877496</v>
+        <v>1.997619867324829</v>
       </c>
       <c r="E1">
-        <v>1.210454837810564</v>
+        <v>4.086225032806396</v>
       </c>
     </row>
   </sheetData>
